--- a/trave3D.xlsx
+++ b/trave3D.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26918"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52fed0fad74f36a9/Public/Python/steelpy_05/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52fed0fad74f36a9/Public/Python/steelpy_06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_F25DC773A252ABDACC104892A99E5CD25BDE58F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7E0F9E0-DB47-4FE7-8F55-FD8E981B7376}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="11_F25DC773A252ABDACC104892A99E5CD25BDE58F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B0FED66-B6CC-42BB-ABA1-737C4CEB08D3}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="600" windowWidth="17595" windowHeight="9945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="240" windowWidth="23190" windowHeight="12825" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
-    <sheet name="Elements" sheetId="2" r:id="rId2"/>
-    <sheet name="Nodes" sheetId="1" r:id="rId3"/>
+    <sheet name="Nodes" sheetId="1" r:id="rId2"/>
+    <sheet name="Elements" sheetId="2" r:id="rId3"/>
     <sheet name="Sections" sheetId="5" r:id="rId4"/>
     <sheet name="Material" sheetId="7" r:id="rId5"/>
     <sheet name="Nodal_Load" sheetId="6" r:id="rId6"/>
@@ -31,22 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
-  <si>
-    <t>Node No.</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>(m)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>Node</t>
   </si>
@@ -54,9 +39,6 @@
     <t>Number</t>
   </si>
   <si>
-    <t>Boundary</t>
-  </si>
-  <si>
     <t>Element</t>
   </si>
   <si>
@@ -66,60 +48,9 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Load Type</t>
-  </si>
-  <si>
-    <t>Curve No.</t>
-  </si>
-  <si>
-    <t>Elem No.</t>
-  </si>
-  <si>
-    <t>Force Magnitude</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Position 2</t>
-  </si>
-  <si>
-    <t>Measure</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>Left Node</t>
-  </si>
-  <si>
-    <t>Right Node</t>
-  </si>
-  <si>
-    <t>(dist. from Left)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>(d/L or ratio)</t>
-  </si>
-  <si>
     <t>Material</t>
   </si>
   <si>
-    <t>Node Number</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
     <t>rx</t>
   </si>
   <si>
@@ -139,16 +70,143 @@
   </si>
   <si>
     <t>Point</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>E-modulus</t>
+  </si>
+  <si>
+    <t>Poisson</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Thermal-X</t>
+  </si>
+  <si>
+    <t>Fy</t>
+  </si>
+  <si>
+    <t>beam</t>
+  </si>
+  <si>
+    <t>Node 1</t>
+  </si>
+  <si>
+    <t>Node 2</t>
+  </si>
+  <si>
+    <t>Node 3</t>
+  </si>
+  <si>
+    <t>Node 4</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>Diametre</t>
+  </si>
+  <si>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Web_Thickness</t>
+  </si>
+  <si>
+    <t>Top_Flange_Thickness</t>
+  </si>
+  <si>
+    <t>Bottom_Flange_Thickness</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>ix</t>
+  </si>
+  <si>
+    <t>iy</t>
+  </si>
+  <si>
+    <t>iz</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>qa</t>
+  </si>
+  <si>
+    <t>qb</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Lc</t>
+  </si>
+  <si>
+    <t>Tubular</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,11 +232,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,7 +529,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,11 +539,241 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8DF221-443F-4B3E-9DA0-794D9BBA7A65}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,193 +784,646 @@
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
+      <c r="D10" s="2">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8652CDAC-D439-4D8C-A834-AEC928CB0EC5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="G3" s="5">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="H3" s="5">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BABDD42-4247-4BF8-A84E-E2C5A24648CF}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-    </row>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4">
+        <v>345000000</v>
+      </c>
+      <c r="D2" s="4">
+        <v>205000000000</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>7850</v>
+      </c>
+      <c r="G2" s="4">
+        <v>80770000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -684,49 +1434,49 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -736,14 +1486,54 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCCA58F-CF47-48AC-A5F5-7ECDEDC0E8AF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>